--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:36 AM</t>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 9:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>70</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,10 +74,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Saturday, 6 September, 2025 9:46 AM</t>
+    <t>Saturday, 6 September, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -74,7 +74,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:47 AM</t>
+    <t>Saturday, 6 September, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -62,19 +62,61 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:59 AM</t>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -748,59 +790,158 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>110</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>22</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>184.66</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +960,25 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -116,7 +116,19 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:04 AM</t>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,38 +922,71 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>184.66</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>280.66000000000003</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1020,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CARDIOTON 300MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
@@ -59,27 +77,18 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:05 AM</t>
+    <t>Saturday, 6 September, 2025 10:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -819,7 +828,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,20 +837,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -868,24 +877,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -894,31 +903,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,66 +936,99 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>280.66000000000003</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>310.66000000000003</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1067,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -98,6 +98,24 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -125,6 +143,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -137,7 +164,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:13 AM</t>
+    <t>Saturday, 6 September, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -920,14 +947,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,14 +963,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,14 +980,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,14 +996,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -986,49 +1013,148 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>310.66000000000003</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>42</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>43</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
-        <v>44</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>415.66000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1198,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:33 AM</t>
+    <t>Saturday, 6 September, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -131,16 +131,16 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>0:2</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
@@ -164,7 +164,16 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:46 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,38 +1132,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>415.66000000000002</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>434.49000000000001</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1255,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -119,13 +131,16 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -173,7 +188,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:47 AM</t>
+    <t>Saturday, 6 September, 2025 11:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -956,11 +971,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -972,14 +987,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -989,11 +1004,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1029,7 +1044,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1078,7 +1093,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,14 +1103,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,14 +1119,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1121,11 +1136,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1137,66 +1152,99 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>434.49000000000001</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>55</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>479.49000000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>61</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1308,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -89,6 +89,27 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
@@ -110,12 +131,30 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -143,6 +182,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>VITAYAMI 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -188,7 +236,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:09 AM</t>
+    <t>Saturday, 6 September, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -928,7 +976,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -938,14 +986,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -954,14 +1002,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -978,7 +1026,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -994,7 +1042,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1004,11 +1052,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1020,14 +1068,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1037,11 +1085,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1053,14 +1101,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1077,7 +1125,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1086,14 +1134,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1103,14 +1151,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1119,7 +1167,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1136,11 +1184,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1152,14 +1200,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1169,11 +1217,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1185,66 +1233,231 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>58</v>
       </c>
-      <c t="s" r="Q18" s="12">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>46</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>479.49000000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>60</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>61</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>69</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>783.88</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>75</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>76</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>77</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1313,10 +1526,35 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ايفا بديل زيت</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -236,7 +245,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:39 AM</t>
+    <t>Saturday, 6 September, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1414,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1426,38 +1435,71 @@
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>783.88</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>75</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>76</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>878.88</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>78</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>80</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1551,10 +1593,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CARDIOTON 300MG 20 TABS.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -245,7 +254,16 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:44 AM</t>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -925,18 +943,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -945,20 +963,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -969,7 +987,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1018,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1028,11 +1046,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1044,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1061,14 +1079,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1077,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1101,7 +1119,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1117,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1127,14 +1145,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1143,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1160,14 +1178,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1233,7 +1251,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,7 +1284,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1325,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1381,7 +1399,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1407,20 +1425,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1431,7 +1449,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1453,7 +1471,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1464,42 +1482,108 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>878.88</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>78</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>23</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>48</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>23</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>964.57000000000005</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1598,10 +1682,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CARDIOTON 300MG 20 TABS.</t>
   </si>
   <si>
@@ -251,7 +263,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -263,7 +278,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 12:57 PM</t>
+    <t>Saturday, 6 September, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,18 +991,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -996,20 +1011,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1020,7 +1035,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1069,7 +1084,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1079,11 +1094,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1095,14 +1110,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1112,14 +1127,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1128,14 +1143,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1152,7 +1167,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1168,7 +1183,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1178,14 +1193,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,14 +1209,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1242,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,14 +1259,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,14 +1275,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1284,7 +1299,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1300,7 +1315,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1325,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1333,7 +1348,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1358,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,14 +1374,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1391,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,14 +1407,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1416,7 +1431,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,14 +1440,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1449,7 +1464,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1465,24 +1480,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,7 +1506,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1504,18 +1519,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,66 +1539,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>964.57000000000005</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>84</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>85</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>52</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>27</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>979.04999999999995</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1740,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 12:58 PM</t>
+    <t>Saturday, 6 September, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -113,16 +113,34 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>EXAMIDE 20 MG 30TABS</t>
@@ -200,9 +218,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -269,6 +284,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -278,7 +302,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 1:02 PM</t>
+    <t>Saturday, 6 September, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1094,11 +1118,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1110,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1127,11 +1151,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1143,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,14 +1184,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1183,7 +1207,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1209,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,11 +1250,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1242,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,11 +1283,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1275,7 +1299,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1292,11 +1316,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,11 +1349,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1341,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,14 +1398,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,14 +1514,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,7 +1530,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1519,15 +1543,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1539,31 +1563,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,14 +1596,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1589,49 +1613,148 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>979.04999999999995</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>26</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>27</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c t="s" r="Q28" s="12">
         <v>90</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>91</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>26</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>27</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>58</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>27</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1021.65</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1868,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 1:05 PM</t>
+    <t>Saturday, 6 September, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1282,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1292,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1299,14 +1308,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1339,7 +1348,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1391,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1405,7 +1414,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,11 +1424,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1455,7 +1464,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1471,7 +1480,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1514,14 +1523,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1596,20 +1605,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1636,7 +1645,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1653,7 +1662,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,7 +1671,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1723,38 +1732,71 @@
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1021.65</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>61</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>27</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1165.6500000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>100</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1925,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 1:24 PM</t>
+    <t>Saturday, 6 September, 2025 1:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,24 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500MG VIAL 100 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -77,9 +104,6 @@
     <t>CARDIOTON 300MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -113,6 +137,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -194,9 +227,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -311,7 +341,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 1:28 PM</t>
+    <t>Saturday, 6 September, 2025 1:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1002,7 +1032,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1011,14 +1041,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1028,11 +1058,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1044,20 +1074,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1068,7 +1098,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1084,7 +1114,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1094,11 +1124,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1110,31 +1140,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1143,14 +1173,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1160,11 +1190,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1176,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1193,14 +1223,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1209,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1226,11 +1256,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1242,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,14 +1289,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1282,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1292,14 +1322,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1308,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1325,14 +1355,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1341,14 +1371,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1358,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1374,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1391,14 +1421,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1407,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1424,14 +1454,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1440,14 +1470,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1457,14 +1487,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1473,7 +1503,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1490,14 +1520,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1513,7 +1543,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,7 +1593,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,14 +1619,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,14 +1635,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,14 +1652,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,31 +1668,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1678,13 +1708,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1695,7 +1725,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1704,20 +1734,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1728,7 +1758,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1744,13 +1774,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1761,42 +1791,141 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1165.6500000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>100</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>34</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>35</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>34</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>35</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>105</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>35</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1315.3599999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +2059,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -62,171 +62,162 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>AMRIZOLE 500MG VIAL 100 ML</t>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>CARDIOTON 300MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>CARDIOTON 300MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -317,10 +308,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -341,7 +332,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 1:56 PM</t>
+    <t>Saturday, 6 September, 2025 3:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1032,7 +1023,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1041,14 +1032,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1058,11 +1049,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1074,14 +1065,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1091,11 +1082,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1107,31 +1098,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1140,20 +1131,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1164,7 +1155,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1180,7 +1171,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1190,11 +1181,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1206,14 +1197,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1223,11 +1214,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1239,14 +1230,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1256,11 +1247,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1272,14 +1263,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1289,14 +1280,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1305,14 +1296,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1329,7 +1320,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1338,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,14 +1346,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,14 +1362,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1379,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,14 +1395,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1428,7 +1419,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1444,7 +1435,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1445,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1461,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,14 +1478,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1503,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1543,7 +1534,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1569,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1593,7 +1584,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1609,7 +1600,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,14 +1610,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1652,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,14 +1676,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1708,7 +1699,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,14 +1709,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,20 +1725,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1758,7 +1749,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1774,13 +1765,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1791,7 +1782,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,31 +1791,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1840,13 +1831,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1857,75 +1848,42 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="A34" s="7">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c t="s" r="C34" s="8">
+      <c r="P34" s="13">
+        <v>1288.3599999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
         <v>107</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c t="s" r="H34" s="9">
-        <v>18</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c t="s" r="L34" s="10">
-        <v>35</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c t="s" r="N34" s="8">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
         <v>108</v>
       </c>
-      <c r="O34" s="8"/>
-      <c t="s" r="P34" s="11">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
         <v>109</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1315.3599999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>110</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>111</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>112</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2069,15 +2027,10 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -86,12 +86,24 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>315.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>CARDIOTON 300MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -173,6 +185,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
@@ -203,6 +224,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GASMOVAC 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -248,12 +281,21 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>55.8600</t>
+  </si>
+  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>44.5500</t>
   </si>
   <si>
@@ -332,7 +374,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 3:01 PM</t>
+    <t>Saturday, 6 September, 2025 3:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1089,7 +1131,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1098,31 +1140,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1131,20 +1173,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1155,7 +1197,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1171,7 +1213,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,11 +1223,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1197,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,11 +1256,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1230,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1247,11 +1289,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1263,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1280,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1320,7 +1362,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1329,14 +1371,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1346,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1362,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1379,11 +1421,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1395,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1435,7 +1477,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,11 +1520,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1494,14 +1536,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,11 +1553,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -1527,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1544,11 +1586,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1560,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1610,14 +1652,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,14 +1668,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1643,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1666,7 +1708,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1683,7 +1725,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,7 +1758,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1732,24 +1774,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,20 +1800,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1798,13 +1840,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1831,59 +1873,191 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1288.3599999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>107</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>108</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>26</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>35</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>109</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>34</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>35</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>112</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>115</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>34</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>35</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>116</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>118</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>79</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>35</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>119</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1936.22</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>121</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>122</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>123</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2027,10 +2201,30 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
@@ -146,6 +158,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -173,9 +197,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -260,6 +281,9 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -344,6 +368,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -374,7 +410,10 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 3:11 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,18 +1225,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1206,20 +1245,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1230,7 +1269,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1246,7 +1285,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,11 +1295,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1272,14 +1311,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,11 +1328,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1305,14 +1344,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,11 +1361,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1338,14 +1377,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1394,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1410,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,11 +1427,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1411,7 +1450,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,14 +1460,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1476,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1493,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,14 +1509,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1487,11 +1526,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1503,14 +1542,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1543,7 +1582,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,11 +1592,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -1569,14 +1608,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,11 +1658,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1635,7 +1674,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1652,11 +1691,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1668,14 +1707,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,11 +1724,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1708,7 +1747,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1725,7 +1764,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1741,7 +1780,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1767,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,14 +1839,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1856,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,14 +1922,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,31 +1938,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,31 +1971,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,28 +2004,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -1998,66 +2037,231 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>120</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1936.22</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>39</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>121</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>123</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>38</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>39</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>124</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>38</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>39</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>128</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>86</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>39</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>131</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>79</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>39</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>69</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2163.2449999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>134</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>135</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>136</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2221,10 +2425,35 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -62,16 +62,34 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANOXICAM 20MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:6</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>129.4800</t>
+  </si>
+  <si>
+    <t>1:4</t>
   </si>
   <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
@@ -89,9 +107,6 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -125,9 +140,6 @@
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -161,42 +173,42 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -233,6 +245,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -308,7 +329,7 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>6:4</t>
   </si>
   <si>
     <t>42.00</t>
@@ -335,9 +356,6 @@
     <t>50.4900</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -386,10 +404,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -413,7 +431,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 5:27 PM</t>
+    <t>Saturday, 6 September, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1104,7 +1122,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1113,14 +1131,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1130,14 +1148,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1163,14 +1181,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1212,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1229,11 +1247,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1245,20 +1263,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1269,7 +1287,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1285,13 +1303,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1302,7 +1320,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1318,7 +1336,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1328,11 +1346,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1384,7 +1402,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1394,7 +1412,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1427,11 +1445,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1443,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1460,14 +1478,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1476,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1500,7 +1518,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1509,7 +1527,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1526,14 +1544,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1542,14 +1560,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,14 +1577,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1575,14 +1593,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1592,14 +1610,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1608,14 +1626,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1632,7 +1650,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1648,24 +1666,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1698,7 +1716,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1823,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,7 +1914,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1912,7 +1930,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1978,7 +1996,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2037,31 +2055,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,31 +2088,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,31 +2121,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,31 +2154,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2169,31 +2187,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2209,59 +2227,125 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2163.2449999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>134</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>135</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>136</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>93</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>43</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>137</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>139</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>86</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>43</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>73</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2349.4299999999998</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>140</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>141</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>142</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2450,10 +2534,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:17 PM</t>
+    <t>Saturday, 6 September, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -170,6 +170,12 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -227,6 +233,15 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FUCICORT CREAM 20 GM</t>
   </si>
   <si>
@@ -239,9 +254,6 @@
     <t>FUTAPAN 40MG 28 E.C. TABS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>144.0000</t>
   </si>
   <si>
@@ -326,6 +338,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -431,7 +452,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:26 PM</t>
+    <t>Saturday, 6 September, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1423,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1412,11 +1433,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1445,11 +1466,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1461,14 +1482,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,7 +1503,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1544,14 +1565,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1560,7 +1581,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1577,14 +1598,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,11 +1631,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1626,14 +1647,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1659,31 +1680,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1709,11 +1730,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1725,31 +1746,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,11 +1796,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,11 +1829,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1824,7 +1845,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1841,11 +1862,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,11 +1895,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1897,7 +1918,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1928,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,31 +2142,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,28 +2175,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2187,31 +2208,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,49 +2324,148 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2349.4299999999998</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>140</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>43</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>141</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>143</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>97</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>43</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>144</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>146</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>90</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>43</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>78</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2514.4899999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>147</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>148</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>149</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2544,10 +2664,25 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -407,6 +407,12 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -452,7 +458,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:36 PM</t>
+    <t>Saturday, 6 September, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2287,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2291,11 +2297,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2307,14 +2313,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2324,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2340,7 +2346,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2357,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2390,11 +2396,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2423,49 +2429,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>148</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>90</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>43</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>78</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2514.4899999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>147</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>148</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2574.4899999999998</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>149</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>150</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>151</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2679,10 +2718,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
   </si>
   <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
@@ -458,7 +458,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:41 PM</t>
+    <t>Saturday, 6 September, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2023,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2040,7 +2040,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2474,7 +2474,7 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>2574.4899999999998</v>
+        <v>2597.4899999999998</v>
       </c>
       <c r="Q49" s="13"/>
     </row>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:42 PM</t>
+    <t>Saturday, 6 September, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>CARDIOTON 300MG 20 TABS.</t>
   </si>
   <si>
@@ -203,16 +212,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>EXAMIDE 20 MG 30TABS</t>
@@ -236,9 +242,6 @@
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -251,12 +254,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40MG 28 E.C. TABS.</t>
   </si>
   <si>
-    <t>144.0000</t>
-  </si>
-  <si>
     <t>GABAVERONA 300MG CAPS</t>
   </si>
   <si>
@@ -320,15 +329,21 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
     <t>31.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -359,6 +374,15 @@
     <t>55.8600</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -416,13 +440,10 @@
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
+    <t>90.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -458,7 +479,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:43 PM</t>
+    <t>Saturday, 6 September, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1264,7 +1285,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1281,7 +1302,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1297,7 +1318,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1307,11 +1328,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1323,31 +1344,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1356,31 +1377,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1389,14 +1410,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1429,7 +1450,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1439,11 +1460,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1455,14 +1476,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1472,7 +1493,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1495,7 +1516,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1505,7 +1526,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1538,11 +1559,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1554,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1587,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1620,7 +1641,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1637,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,7 +1674,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1670,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1686,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1719,7 +1740,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1736,11 +1757,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1752,31 +1773,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1785,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,11 +1823,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1818,31 +1839,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1851,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,11 +1889,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1917,7 +1938,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1934,11 +1955,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +1988,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,11 +2021,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2049,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,7 +2136,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,14 +2219,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,11 +2252,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2247,31 +2268,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,28 +2334,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2346,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,28 +2400,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2412,28 +2433,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2445,66 +2466,198 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>145</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>46</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>146</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>149</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>46</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>150</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>100</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>46</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>153</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>93</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>46</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>79</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2597.4899999999998</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>149</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>150</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>151</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3045.3299999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>156</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>157</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>158</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2723,10 +2876,30 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 6:57 PM</t>
+    <t>Saturday, 6 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:01 PM</t>
+    <t>Saturday, 6 September, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -107,6 +107,9 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -161,9 +164,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -290,84 +290,81 @@
     <t>GASMOVAC 5MG 30 TAB.</t>
   </si>
   <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -479,7 +476,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:03 PM</t>
+    <t>Saturday, 6 September, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1252,7 +1249,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1262,14 +1259,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1278,7 +1275,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1295,11 +1292,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1311,7 +1308,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1328,11 +1325,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1344,14 +1341,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1361,11 +1358,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1377,7 +1374,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1390,15 +1387,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1410,14 +1407,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1681,7 +1678,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1724,7 +1721,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1780,7 +1777,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,11 +1820,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1852,7 +1849,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1912,7 +1909,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,11 +1919,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1938,7 +1935,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1955,11 +1952,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1971,14 +1968,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,11 +1985,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2004,7 +2001,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2021,11 +2018,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2037,14 +2034,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2070,7 +2067,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2087,11 +2084,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2103,7 +2100,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2120,11 +2117,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2136,14 +2133,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,11 +2150,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2169,7 +2166,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2186,11 +2183,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2202,14 +2199,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,11 +2216,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2235,14 +2232,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,11 +2249,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2268,14 +2265,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,11 +2282,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2301,14 +2298,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,11 +2315,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2351,11 +2348,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2367,14 +2364,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,11 +2381,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2400,7 +2397,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2413,15 +2410,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2433,7 +2430,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2446,15 +2443,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2466,7 +2463,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2479,18 +2476,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2499,7 +2496,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2512,18 +2509,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,7 +2529,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2545,15 +2542,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2565,28 +2562,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2598,20 +2595,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2633,7 +2630,7 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2641,13 +2638,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -107,63 +107,63 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>315.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>CARDIOTON 300MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>315.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>CARDIOTON 300MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -290,6 +290,9 @@
     <t>GASMOVAC 5MG 30 TAB.</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -362,7 +365,7 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>6:4</t>
   </si>
   <si>
     <t>42.00</t>
@@ -476,7 +479,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:09 PM</t>
+    <t>Saturday, 6 September, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1252,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1259,14 +1262,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1275,7 +1278,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1292,11 +1295,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1308,7 +1311,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1325,11 +1328,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1341,14 +1344,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1358,11 +1361,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1374,7 +1377,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1387,15 +1390,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1407,14 +1410,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1678,7 +1681,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1721,7 +1724,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1777,7 +1780,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,11 +1823,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1849,7 +1852,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1909,7 +1912,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1919,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1935,7 +1938,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1952,11 +1955,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2001,7 +2004,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2018,11 +2021,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2150,11 +2153,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2183,11 +2186,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2199,14 +2202,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2216,11 +2219,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,11 +2252,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2265,14 +2268,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2282,11 +2285,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2298,14 +2301,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2315,11 +2318,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2331,7 +2334,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2348,11 +2351,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2364,14 +2367,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2381,11 +2384,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2410,15 +2413,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2430,7 +2433,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2443,15 +2446,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2476,18 +2479,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2496,7 +2499,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2509,18 +2512,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2529,7 +2532,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2542,15 +2545,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2562,28 +2565,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2595,20 +2598,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2630,7 +2633,7 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2638,13 +2641,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:13 PM</t>
+    <t>Saturday, 6 September, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -479,7 +488,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:15 PM</t>
+    <t>Saturday, 6 September, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1987,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,11 +1997,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2004,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,11 +2030,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2044,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2110,7 +2119,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2143,7 +2152,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2160,7 +2169,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2193,7 +2202,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2259,7 +2268,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2358,7 +2367,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2400,20 +2409,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2523,7 +2532,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,7 +2541,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2605,7 +2614,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2615,49 +2624,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>158</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>93</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>46</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>79</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3045.3299999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>156</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>157</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>158</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>3267.3299999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>159</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>160</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>161</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2896,10 +2938,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:16 PM</t>
+    <t>Saturday, 6 September, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BURNASORES 0.25% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -197,156 +209,156 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASMOVAC 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASMOVAC 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -488,7 +500,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:26 PM</t>
+    <t>Saturday, 6 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1306,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1304,11 +1316,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1337,14 +1349,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1353,14 +1365,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1393,13 +1405,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1410,7 +1422,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1426,13 +1438,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1443,7 +1455,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1459,7 +1471,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,11 +1481,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1502,11 +1514,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1535,11 +1547,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1568,11 +1580,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,7 +1695,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,7 +1728,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,14 +1778,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1848,31 +1860,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,31 +1893,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1954,7 +1966,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,11 +1976,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1980,7 +1992,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1997,11 +2009,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,11 +2042,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2086,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,11 +2141,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2152,7 +2164,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2185,7 +2197,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2268,7 +2280,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2284,7 +2296,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2310,7 +2322,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2383,7 +2395,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2449,21 +2461,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2475,7 +2487,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2488,15 +2500,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2508,31 +2520,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,31 +2553,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2587,7 +2599,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2598,7 +2610,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2607,28 +2619,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2640,66 +2652,99 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>3267.3299999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>159</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>160</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>161</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>97</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>50</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>84</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>3401.0900000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>163</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>164</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>165</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2943,10 +2988,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -332,6 +332,18 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -395,6 +407,18 @@
     <t>55.8600</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -473,10 +497,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -485,7 +509,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -500,7 +524,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:32 PM</t>
+    <t>Saturday, 6 September, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,24 +2122,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,11 +2165,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,11 +2198,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2230,7 +2254,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2313,7 +2337,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2329,7 +2353,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,7 +2511,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2500,15 +2524,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2520,28 +2544,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,49 +2726,115 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>66</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>50</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>168</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>97</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>84</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3401.0900000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>163</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>164</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>165</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3428.0900000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>171</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>172</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>173</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2993,10 +3083,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANOXICAM 20MG 10 SUPP.</t>
   </si>
   <si>
@@ -71,12 +83,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -164,9 +170,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -296,66 +299,69 @@
     <t>22.00</t>
   </si>
   <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASMOVAC 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>22.0000</t>
   </si>
   <si>
-    <t>GASMOVAC 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -497,9 +503,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>22:0</t>
   </si>
   <si>
@@ -524,7 +527,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:47 PM</t>
+    <t>Saturday, 6 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1215,7 +1218,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1224,14 +1227,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1241,14 +1244,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1274,14 +1277,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1290,14 +1293,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1307,14 +1310,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1323,14 +1326,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1340,14 +1343,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1356,14 +1359,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1373,14 +1376,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,14 +1392,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1406,14 +1409,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1425,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,11 +1442,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1455,31 +1458,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1488,31 +1491,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1524,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,11 +1541,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1554,14 +1557,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,11 +1574,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1587,14 +1590,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,11 +1607,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1620,14 +1623,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,14 +1640,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1653,14 +1656,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1686,14 +1689,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1706,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1722,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1739,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,7 +1755,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1769,14 +1772,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,7 +1788,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1802,14 +1805,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1821,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1838,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,14 +1854,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1871,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1887,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,14 +1904,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1924,24 +1927,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,31 +1953,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +1986,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2003,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,14 +2019,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2036,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2052,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2069,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2085,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,24 +2125,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,31 +2151,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2184,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2221,7 +2224,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2234,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2300,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2333,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2366,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2382,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,14 +2399,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,14 +2415,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2432,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2465,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2485,7 +2488,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2531,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,14 +2547,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,14 +2564,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,31 +2580,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,31 +2613,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2650,24 +2653,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,31 +2679,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,31 +2712,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,31 +2745,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2775,66 +2778,99 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>98</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>52</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3428.0900000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>171</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3470.0900000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
         <v>172</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
         <v>173</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>174</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3093,10 +3129,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -392,6 +410,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -401,6 +428,18 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -461,6 +500,9 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ZITHROMAX 900MG/22.5ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -503,7 +545,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -527,7 +572,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:50 PM</t>
+    <t>Saturday, 6 September, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,7 +1378,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1350,7 +1395,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1359,14 +1404,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1376,14 +1421,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1392,14 +1437,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1432,7 +1477,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1449,7 +1494,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1465,7 +1510,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1475,11 +1520,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1491,31 +1536,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1531,24 +1576,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1557,14 +1602,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1597,7 +1642,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1607,11 +1652,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1623,14 +1668,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,7 +1685,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1663,7 +1708,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,14 +1718,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,14 +1734,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,14 +1751,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1722,14 +1767,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1784,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1779,7 +1824,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1812,7 +1857,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1838,14 +1883,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,14 +1899,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1871,11 +1916,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1887,14 +1932,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1937,11 +1982,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1953,31 +1998,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1986,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2026,24 +2071,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2052,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,14 +2114,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2125,7 +2170,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,11 +2180,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2151,31 +2196,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2184,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,11 +2246,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2217,31 +2262,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2250,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,11 +2312,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,11 +2345,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2373,7 +2418,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2389,7 +2434,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,14 +2444,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2415,14 +2460,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2477,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2493,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2510,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,14 +2526,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2498,14 +2543,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,7 +2583,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2554,7 +2599,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2564,14 +2609,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,14 +2625,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2620,24 +2665,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,31 +2691,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,31 +2724,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2712,31 +2757,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2745,20 +2790,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2769,7 +2814,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2785,13 +2830,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2818,59 +2863,224 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3470.0900000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>172</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>173</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>76</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>55</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>174</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>22</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>55</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>177</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>180</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>22</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>55</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>181</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>70</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>55</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>184</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>186</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>104</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>55</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>91</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3856.8899999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>187</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>188</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>189</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3134,10 +3344,35 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -410,6 +410,27 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -482,15 +503,12 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
-  </si>
-  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -506,9 +524,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -545,10 +560,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -572,7 +587,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 7:57 PM</t>
+    <t>Saturday, 6 September, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,24 +2482,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2550,7 +2565,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2566,7 +2581,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2576,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2649,7 +2664,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2665,7 +2680,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2675,11 +2690,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2764,7 +2779,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2807,11 +2822,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2823,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2836,15 +2851,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2856,24 +2871,24 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2896,7 +2911,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2913,7 +2928,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2929,7 +2944,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>51</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3038,49 +3053,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>70</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>55</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>104</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>55</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>91</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3856.8899999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>187</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>188</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>189</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3953.7199999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>192</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>193</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>194</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3369,10 +3450,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -464,13 +464,22 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>6:4</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>55.8600</t>
+    <t>69.7200</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
@@ -587,7 +596,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:08 PM</t>
+    <t>Saturday, 6 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2664,7 +2673,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2855,11 +2864,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2911,13 +2920,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3027,7 +3036,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,7 +3045,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3093,7 +3102,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,49 +3128,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>194</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>104</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>55</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>91</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3953.7199999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>192</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>193</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>194</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3991.5799999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>195</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>196</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>197</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3502,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:18 PM</t>
+    <t>Saturday, 6 September, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>-33.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -299,6 +311,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>-23.5000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40MG 28 E.C. TABS.</t>
   </si>
   <si>
@@ -350,6 +371,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -416,9 +446,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -596,7 +623,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:19 PM</t>
+    <t>Saturday, 6 September, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1699,7 +1726,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,14 +1736,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1725,14 +1752,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,11 +1769,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1758,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,14 +1802,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1812,10 +1839,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,14 +1851,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1864,7 +1891,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,14 +1901,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,7 +1917,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1907,14 +1934,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,11 +1967,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +2000,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2033,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,14 +2049,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,11 +2066,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,11 +2099,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2088,31 +2115,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2165,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,20 +2181,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2178,7 +2205,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2194,7 +2221,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2211,7 +2238,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2227,7 +2254,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,11 +2264,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2253,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2297,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2286,31 +2313,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,14 +2346,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2363,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,11 +2396,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2385,31 +2412,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,11 +2462,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2451,14 +2478,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2495,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2491,24 +2518,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2544,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2541,7 +2568,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2557,7 +2584,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2574,7 +2601,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2590,17 +2617,17 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2623,7 +2650,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2693,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,14 +2709,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,14 +2726,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,14 +2742,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,10 +2862,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,11 +2891,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,14 +2924,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,14 +2940,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,14 +2957,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,7 +2973,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2959,15 +2986,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2979,7 +3006,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2992,15 +3019,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3012,31 +3039,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,14 +3072,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3062,14 +3089,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3085,7 +3112,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,14 +3122,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3111,14 +3138,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,14 +3155,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,14 +3171,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,49 +3188,148 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3991.5799999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>195</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>196</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>197</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>22</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>55</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>198</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>74</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>55</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>201</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>203</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>111</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>55</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>95</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3898.9400000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>204</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>205</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>206</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3633,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:24 PM</t>
+    <t>Saturday, 6 September, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -623,7 +623,13 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:25 PM</t>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>Saturday, 6 September, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3298,38 +3304,71 @@
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3898.9400000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>204</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>55</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>205</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3928.9400000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>206</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>207</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>208</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3648,10 +3687,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -233,49 +245,52 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
+    <t>30.00</t>
   </si>
   <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
@@ -395,6 +410,15 @@
     <t>13.2000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -413,12 +437,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -479,13 +497,13 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:13</t>
+    <t>1:12</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>75.2000</t>
+    <t>112.8000</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -563,7 +581,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t>ايفا بديل زيت</t>
@@ -596,10 +614,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>24:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -608,7 +626,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -626,10 +644,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>Saturday, 6 September, 2025 8:26 PM</t>
+    <t>Saturday, 6 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1780,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,10 +1893,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1956,7 +1971,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2062,7 +2077,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2095,7 +2110,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2138,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2171,11 +2186,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2187,31 +2202,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2237,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2253,31 +2268,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,11 +2351,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,14 +2384,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,11 +2417,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2418,20 +2433,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2442,7 +2457,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2458,7 +2473,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2468,11 +2483,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2484,31 +2499,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2524,7 +2539,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2557,7 +2572,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,11 +2582,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,31 +2631,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2715,28 +2730,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2780,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2880,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,14 +2978,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,11 +3011,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3066,10 +3081,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,7 +3093,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3091,15 +3106,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3111,7 +3126,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3124,15 +3139,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3144,28 +3159,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>51</v>
@@ -3177,14 +3192,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,14 +3209,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,14 +3308,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3326,49 +3341,148 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>92</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>55</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>116</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>55</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>100</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>55</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>93</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3928.9400000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>206</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>207</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>208</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4189.3000000000002</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>211</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>212</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>213</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3692,10 +3806,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -419,6 +419,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -596,9 +602,6 @@
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -644,7 +647,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:50 PM</t>
+    <t>Saturday, 6 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2572,21 +2575,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,7 +2618,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2638,7 +2641,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,11 +2651,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,31 +2733,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,28 +2766,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2915,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2948,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,14 +3014,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,7 +3030,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3067,7 +3070,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,14 +3080,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,14 +3096,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3114,10 +3117,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,7 +3129,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3143,11 +3146,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3159,14 +3162,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,14 +3179,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,31 +3195,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,7 +3228,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3242,7 +3245,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3265,7 +3268,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3275,14 +3278,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,14 +3294,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,14 +3311,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,7 +3327,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3341,14 +3344,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,14 +3360,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,14 +3377,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3407,11 +3410,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3430,7 +3433,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,49 +3443,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>55</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>93</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4189.3000000000002</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>211</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4249.3000000000002</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
         <v>212</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
         <v>213</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>214</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3821,10 +3857,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -647,7 +647,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:52 PM</t>
+    <t>Saturday, 6 September, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>1:4</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -203,6 +215,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -446,9 +467,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -500,6 +518,21 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -554,6 +587,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TECAFO 30 TAB</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -629,7 +671,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -647,7 +689,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:55 PM</t>
+    <t>Saturday, 6 September, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1495,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1463,11 +1505,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1479,14 +1521,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1496,14 +1538,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1519,7 +1561,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1529,14 +1571,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1552,7 +1594,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1562,11 +1604,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1578,14 +1620,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1595,14 +1637,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1611,14 +1653,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1651,24 +1693,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1677,31 +1719,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1717,7 +1759,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1727,11 +1769,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1743,14 +1785,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1760,14 +1802,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1783,7 +1825,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1793,14 +1835,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1809,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1826,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1842,14 +1884,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1859,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1875,14 +1917,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1892,14 +1934,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1908,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1925,14 +1967,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1941,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1958,11 +2000,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1974,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1991,14 +2033,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2014,7 +2056,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2024,14 +2066,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2040,14 +2082,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2061,10 +2103,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2073,14 +2115,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2090,11 +2132,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2106,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,14 +2165,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2139,14 +2181,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2156,11 +2198,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2172,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2189,14 +2231,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2205,14 +2247,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2222,14 +2264,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2238,14 +2280,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2255,11 +2297,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2271,31 +2313,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2304,14 +2346,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2321,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2337,20 +2379,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2361,7 +2403,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2377,7 +2419,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2394,7 +2436,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2410,7 +2452,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2420,11 +2462,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2436,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,14 +2495,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2486,11 +2528,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2502,31 +2544,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,11 +2594,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2575,24 +2617,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2601,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2618,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2634,28 +2676,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2667,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2700,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,11 +2759,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2733,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2773,24 +2815,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2806,7 +2848,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2823,7 +2865,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2839,24 +2881,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2872,7 +2914,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2905,7 +2947,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,7 +3063,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3037,7 +3079,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3047,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3063,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,14 +3122,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3096,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3113,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3162,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,11 +3221,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3195,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3212,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,31 +3270,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,31 +3303,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,31 +3336,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,31 +3369,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3367,13 +3409,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3384,7 +3426,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3400,13 +3442,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3433,21 +3475,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3466,59 +3508,224 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4249.3000000000002</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>212</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>213</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>214</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>22</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>59</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>215</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>22</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>59</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>219</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>221</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>99</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>59</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>222</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>123</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>59</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>107</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>59</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>100</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4474.3000000000002</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>226</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>227</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>228</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3862,10 +4069,35 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -167,9 +176,6 @@
     <t>CARDIOTON 300MG 20 TABS.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -287,6 +293,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -305,6 +320,18 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -314,6 +341,18 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
   </si>
   <si>
@@ -449,9 +488,6 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>135.0000</t>
   </si>
   <si>
@@ -479,7 +515,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
+    <t>92.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -635,21 +671,12 @@
     <t>ايفا بديل زيت</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -689,7 +716,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:57 PM</t>
+    <t>Saturday, 6 September, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1522,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1505,11 +1532,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1521,14 +1548,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1561,7 +1588,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1578,7 +1605,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1620,14 +1647,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1660,7 +1687,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1677,7 +1704,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1693,7 +1720,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1703,11 +1730,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1719,31 +1746,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1752,31 +1779,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1785,14 +1812,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,11 +1829,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1818,7 +1845,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1835,11 +1862,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,14 +1895,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1957,7 +1984,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,11 +1994,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2016,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,11 +2060,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2049,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,11 +2093,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,11 +2159,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,11 +2225,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,11 +2291,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2379,31 +2406,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,11 +2522,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2524,7 +2551,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2535,7 +2562,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2551,7 +2578,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2568,7 +2595,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2584,7 +2611,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,11 +2621,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2610,31 +2637,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,11 +2687,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2676,31 +2703,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,11 +2753,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2742,31 +2769,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,11 +2819,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2808,28 +2835,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,20 +2901,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2895,10 +2922,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2947,7 +2974,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2980,7 +3007,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2997,7 +3024,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3019,18 +3046,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,7 +3264,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,11 +3314,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,11 +3380,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3369,7 +3396,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3386,14 +3413,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3446,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,7 +3495,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3481,15 +3508,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3501,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>217</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,31 +3594,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,28 +3627,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3633,31 +3660,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,66 +3693,198 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4474.3000000000002</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>226</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>227</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>22</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>61</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>228</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>230</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>108</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>61</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>231</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>136</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>61</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>120</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>61</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>109</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4746.1999999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>235</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>236</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>237</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4094,10 +4253,30 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -716,7 +716,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:58 PM</t>
+    <t>Saturday, 6 September, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -557,16 +557,13 @@
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>1:7</t>
   </si>
   <si>
     <t>240.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -602,6 +599,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -698,7 +704,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>32.4000</t>
+  </si>
+  <si>
+    <t>10:1</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -710,13 +719,16 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين شفايف افونا </t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 8:59 PM</t>
+    <t>Saturday, 6 September, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3189,7 +3201,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,11 +3227,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,11 +3260,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3264,7 +3276,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,11 +3392,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3425,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3436,7 +3448,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,7 +3458,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3469,7 +3481,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3516,10 +3528,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,7 +3540,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,31 +3606,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,7 +3639,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3644,11 +3656,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3700,7 +3712,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,7 +3738,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>232</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3799,7 +3811,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,11 +3821,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3842,49 +3854,115 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>136</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>61</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>120</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>238</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>61</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>109</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4746.1999999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>235</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>236</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>237</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4746.1000000000004</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>239</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>240</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>241</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4273,10 +4351,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
     <t>BURNASORES 0.25% OINT. 15 GM</t>
   </si>
   <si>
@@ -350,9 +362,6 @@
     <t>89.1000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
   </si>
   <si>
@@ -632,6 +641,12 @@
     <t>TECAFO 30 TAB</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>36.9600</t>
+  </si>
+  <si>
     <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -728,7 +743,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:08 PM</t>
+    <t>Saturday, 6 September, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1683,7 +1698,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1699,7 +1714,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1709,11 +1724,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1775,7 +1790,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1798,24 +1813,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1824,31 +1839,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1864,7 +1879,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1874,11 +1889,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1890,7 +1905,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1963,7 +1978,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1996,7 +2011,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2006,14 +2021,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2039,11 +2054,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2105,11 +2120,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2161,7 +2176,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2220,7 +2235,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2237,14 +2252,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2307,7 +2322,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2359,7 +2374,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2376,7 +2391,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2392,7 +2407,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,14 +2450,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2458,7 +2473,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2491,7 +2506,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2508,7 +2523,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2524,7 +2539,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2550,31 +2565,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2590,13 +2605,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2607,7 +2622,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2623,7 +2638,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2722,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2739,7 +2754,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2755,7 +2770,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2765,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,31 +2796,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2814,20 +2829,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2838,7 +2853,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2854,21 +2869,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2880,28 +2895,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,11 +2945,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2963,11 +2978,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3019,7 +3034,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3052,24 +3067,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3085,17 +3100,17 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3118,7 +3133,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3135,7 +3150,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3151,7 +3166,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3168,7 +3183,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3184,7 +3199,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3209,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3300,7 +3315,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3316,7 +3331,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3333,7 +3348,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3349,7 +3364,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3359,14 +3374,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3375,14 +3390,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3399,7 +3414,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3415,7 +3430,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3425,11 +3440,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3441,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3458,14 +3473,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3474,14 +3489,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3491,14 +3506,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3507,14 +3522,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3524,14 +3539,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3547,7 +3562,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3557,14 +3572,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3606,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3623,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,7 +3654,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3652,15 +3667,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3672,31 +3687,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3705,31 +3720,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3738,31 +3753,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3771,31 +3786,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3804,31 +3819,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3837,31 +3852,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3870,28 +3885,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3903,66 +3918,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4746.1000000000004</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>239</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>240</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>241</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>242</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>139</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>65</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>123</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>65</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>113</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4900.8699999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>244</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>245</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>246</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4361,10 +4442,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>COVAPRENDO 5/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -743,7 +752,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:09 PM</t>
+    <t>Saturday, 6 September, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2077,7 +2086,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2094,7 +2103,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2110,7 +2119,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2120,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2143,7 +2152,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2157,7 +2166,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2186,11 +2195,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2226,7 +2235,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2259,7 +2268,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2292,7 +2301,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2351,11 +2360,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2374,7 +2383,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2407,7 +2416,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2424,7 +2433,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2440,7 +2449,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2539,7 +2548,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2556,7 +2565,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2598,31 +2607,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2638,13 +2647,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2655,7 +2664,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2671,7 +2680,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2770,7 +2779,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2787,7 +2796,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2803,7 +2812,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2829,31 +2838,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2862,20 +2871,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2886,7 +2895,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2902,21 +2911,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2928,28 +2937,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3067,7 +3076,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3100,24 +3109,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3133,17 +3142,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3166,7 +3175,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3183,7 +3192,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3216,7 +3225,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3232,7 +3241,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3348,7 +3357,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3364,7 +3373,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3381,7 +3390,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3397,7 +3406,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3447,7 +3456,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3463,7 +3472,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3628,7 +3637,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3687,14 +3696,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3727,24 +3736,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,7 +3762,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,7 +3861,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>237</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3925,7 +3934,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3968,11 +3977,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4001,49 +4010,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>246</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>65</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>116</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>59</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4900.8699999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>244</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>245</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>246</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5011.8699999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>247</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>248</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>249</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4452,10 +4494,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ADAPALENE 0.1% GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -680,12 +689,6 @@
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>ZITHROMAX 900MG/22.5ML (200MG/5ML) SUSP.</t>
   </si>
   <si>
@@ -752,7 +755,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:10 PM</t>
+    <t>Saturday, 6 September, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1429,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1436,14 +1439,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1452,14 +1455,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1469,14 +1472,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1506,10 +1509,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1518,14 +1521,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1535,14 +1538,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1551,14 +1554,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1591,7 +1594,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1601,11 +1604,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1617,14 +1620,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1657,7 +1660,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1674,7 +1677,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1683,14 +1686,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1700,14 +1703,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1716,14 +1719,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1733,14 +1736,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1749,14 +1752,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1789,7 +1792,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1799,14 +1802,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1815,14 +1818,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1832,11 +1835,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1848,31 +1851,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1888,24 +1891,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1914,14 +1917,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1987,7 +1990,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2004,7 +2007,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,14 +2016,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2030,14 +2033,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2046,14 +2049,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2063,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2079,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2096,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2119,7 +2122,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2136,7 +2139,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2152,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2185,7 +2188,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2195,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2244,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2268,7 +2271,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2284,7 +2287,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2301,7 +2304,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2334,7 +2337,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2350,7 +2353,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2360,11 +2363,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2376,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2393,11 +2396,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2416,7 +2419,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2426,14 +2429,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2449,7 +2452,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2466,7 +2469,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2482,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2492,14 +2495,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2508,14 +2511,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2525,14 +2528,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2548,7 +2551,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2581,7 +2584,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2598,7 +2601,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2614,7 +2617,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2624,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2640,31 +2643,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2680,13 +2683,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2697,7 +2700,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2713,7 +2716,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2723,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2739,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2812,7 +2815,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2829,7 +2832,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2845,7 +2848,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,31 +2874,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2904,20 +2907,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2928,7 +2931,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2944,21 +2947,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2970,28 +2973,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3003,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3020,11 +3023,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3036,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,11 +3056,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3069,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3086,11 +3089,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3109,7 +3112,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3142,24 +3145,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3175,17 +3178,17 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3208,7 +3211,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3225,7 +3228,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3241,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3258,7 +3261,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3274,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3284,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3300,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3350,11 +3353,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3366,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3390,7 +3393,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3406,7 +3409,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3423,7 +3426,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3439,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3465,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3489,7 +3492,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3505,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3515,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3531,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3548,14 +3551,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3581,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3597,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3614,11 +3617,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3630,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3647,14 +3650,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3670,7 +3673,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,14 +3683,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3713,11 +3716,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3736,7 +3739,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3746,14 +3749,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3762,31 +3765,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3808,15 +3811,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3835,24 +3838,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,31 +3864,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>236</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,31 +3897,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3927,31 +3930,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3960,28 +3963,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4000,21 +4003,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4033,59 +4036,92 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5011.8699999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>247</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>68</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>119</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5045.8699999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>248</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>249</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>250</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4499,10 +4535,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ADAPALENE 0.1% GEL 30 GM</t>
   </si>
   <si>
@@ -596,13 +608,16 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:12</t>
+    <t>1:11</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>112.8000</t>
+    <t>150.4000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -755,7 +770,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:13 PM</t>
+    <t>Saturday, 6 September, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,7 +1444,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1439,11 +1454,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1455,14 +1470,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1479,7 +1494,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1509,10 +1524,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1521,14 +1536,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1538,14 +1553,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1554,14 +1569,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1571,14 +1586,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1594,7 +1609,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1604,11 +1619,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1620,14 +1635,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1660,7 +1675,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1703,14 +1718,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1726,7 +1741,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1736,14 +1751,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,7 +1791,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1792,7 +1807,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1802,11 +1817,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1818,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1835,14 +1850,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1851,14 +1866,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1868,7 +1883,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1891,24 +1906,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1917,31 +1932,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1957,7 +1972,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,11 +1982,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1983,7 +1998,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2000,11 +2015,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,14 +2048,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,7 +2071,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2089,7 +2104,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,14 +2147,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2181,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,14 +2246,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2247,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2287,7 +2302,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,7 +2361,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2363,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2433,7 +2448,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2445,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2610,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,31 +2691,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,31 +2724,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2766,7 +2781,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2797,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2808,7 +2823,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2825,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,31 +2922,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2947,24 +2962,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,28 +2988,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3006,28 +3021,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3072,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,11 +3137,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3171,31 +3186,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,28 +3219,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3327,7 +3342,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,7 +3375,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,7 +3408,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,7 +3747,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,31 +3813,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,7 +3846,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3844,15 +3859,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3864,31 +3879,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,31 +3912,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>237</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,31 +3945,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,31 +3978,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3996,28 +4011,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4029,28 +4044,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4062,66 +4077,99 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5045.8699999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>248</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>249</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>250</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>72</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>123</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5098.4700000000003</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>253</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>254</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>255</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4540,10 +4588,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:14 PM</t>
+    <t>Saturday, 6 September, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -650,6 +650,15 @@
     <t>16.5000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -770,7 +779,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:16 PM</t>
+    <t>Saturday, 6 September, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3523,7 +3532,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3573,7 +3582,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3589,7 +3598,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3754,7 +3763,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,7 +3789,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3853,24 +3862,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,7 +3888,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>242</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,7 +3987,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>245</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4051,7 +4060,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4127,49 +4136,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>255</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>72</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>123</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5098.4700000000003</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>253</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>254</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>255</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5137.4700000000003</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>256</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>257</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>258</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4593,10 +4635,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -779,7 +788,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:17 PM</t>
+    <t>Saturday, 6 September, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1792,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1882,7 +1891,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,11 +1934,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1941,31 +1950,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1981,24 +1990,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2080,7 +2089,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2097,7 +2106,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2172,7 +2181,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2212,7 +2221,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2229,7 +2238,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2245,7 +2254,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,11 +2297,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2361,7 +2370,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2427,7 +2436,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,11 +2495,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2509,7 +2518,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2559,7 +2568,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2575,7 +2584,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2674,7 +2683,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2691,7 +2700,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,31 +2742,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2773,13 +2782,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2790,7 +2799,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2905,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2922,7 +2931,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2938,7 +2947,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,31 +2973,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,20 +3006,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3021,7 +3030,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3037,21 +3046,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3063,28 +3072,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3202,7 +3211,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3235,24 +3244,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3268,17 +3277,17 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3301,7 +3310,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3318,7 +3327,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3334,7 +3343,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3351,7 +3360,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>202</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3483,7 +3492,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3516,7 +3525,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3532,7 +3541,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3549,7 +3558,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3565,7 +3574,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3615,7 +3624,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3631,7 +3640,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3796,7 +3805,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,7 +3831,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3895,24 +3904,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3934,15 +3943,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3954,31 +3963,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,31 +3996,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,7 +4029,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4033,18 +4042,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>248</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>249</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,31 +4062,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>252</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4093,21 +4102,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4119,28 +4128,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4152,66 +4161,99 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5137.4700000000003</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>256</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>257</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>258</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>75</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>126</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5164.1999999999998</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>259</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>260</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>261</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4640,10 +4682,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -152,6 +152,24 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
   </si>
   <si>
@@ -629,6 +647,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -692,6 +719,9 @@
     <t>TECAFO 30 TAB</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -788,7 +818,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:18 PM</t>
+    <t>Saturday, 6 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1756,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1759,7 +1789,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1776,7 +1806,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1785,14 +1815,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1802,11 +1832,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1818,14 +1848,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1835,14 +1865,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1851,14 +1881,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1868,14 +1898,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1884,14 +1914,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1901,14 +1931,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1934,14 +1964,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1950,14 +1980,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1974,7 +2004,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1990,24 +2020,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,11 +2063,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2049,31 +2079,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2122,7 +2152,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2139,7 +2169,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2221,7 +2251,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,11 +2261,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,7 +2294,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2287,7 +2317,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2320,7 +2350,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,11 +2393,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>32</v>
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2436,7 +2466,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2452,7 +2482,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2485,7 +2515,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,11 +2558,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2568,7 +2598,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2584,7 +2614,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,11 +2624,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2617,7 +2647,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2660,11 +2690,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2676,14 +2706,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2693,14 +2723,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2716,7 +2746,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2733,7 +2763,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2749,7 +2779,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,11 +2789,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2775,31 +2805,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2848,24 +2878,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2947,7 +2977,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2964,7 +2994,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2980,7 +3010,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,11 +3020,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3006,31 +3036,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,11 +3086,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3072,31 +3102,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,11 +3152,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3138,28 +3168,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,11 +3251,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3277,24 +3307,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3310,7 +3340,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3327,7 +3357,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3343,24 +3373,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3376,7 +3406,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3409,7 +3439,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3548,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,14 +3581,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3591,7 +3621,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3607,7 +3637,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3699,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,14 +3746,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3848,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,7 +3894,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,31 +3960,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,7 +3993,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3976,15 +4006,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3996,31 +4026,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,31 +4059,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,31 +4092,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,28 +4125,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4128,31 +4158,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,31 +4191,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4194,66 +4224,198 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5164.1999999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>259</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>260</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>261</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>131</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>81</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>264</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>68</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>81</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>30</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>158</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>81</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>142</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>268</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>12</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>81</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>132</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5382.0799999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>269</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>270</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>271</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4687,10 +4849,30 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:19 PM</t>
+    <t>Saturday, 6 September, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -521,6 +521,12 @@
     <t>-35.6400</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>-38.6100</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -818,7 +824,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:26 PM</t>
+    <t>Saturday, 6 September, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3076,7 +3082,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,31 +3108,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,31 +3141,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,24 +3174,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3208,17 +3214,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3241,7 +3247,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,7 +3257,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3274,7 +3280,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3290,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3366,31 +3372,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,28 +3405,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3752,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3785,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3818,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,7 +3907,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3934,7 +3940,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,7 +3950,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3967,7 +3973,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,14 +3999,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4010,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,7 +4032,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4043,11 +4049,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4059,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4092,31 +4098,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,7 +4131,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4142,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4158,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,14 +4181,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4198,7 +4204,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,14 +4214,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,7 +4230,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4241,14 +4247,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,14 +4280,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,14 +4296,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4313,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4323,14 +4329,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,11 +4346,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4356,14 +4362,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,49 +4379,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>270</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>81</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>132</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>75</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5382.0799999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>269</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>270</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5343.4700000000003</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>271</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>272</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>273</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4869,10 +4908,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -521,6 +521,15 @@
     <t>-35.6400</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -593,99 +602,102 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>150.4000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>69.7200</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>150.4000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>69.7200</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -788,10 +800,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -806,6 +815,9 @@
     <t>10:1</t>
   </si>
   <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -821,10 +833,16 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:32 PM</t>
+    <t>Saturday, 6 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3082,7 +3100,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3141,31 +3159,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3174,20 +3192,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3198,7 +3216,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3214,21 +3232,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3240,28 +3258,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,11 +3374,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3379,7 +3397,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3412,24 +3430,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3445,24 +3463,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3478,7 +3496,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3495,7 +3513,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,7 +3529,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3528,7 +3546,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3544,7 +3562,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>213</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,7 +3661,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3693,7 +3711,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3709,7 +3727,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3726,7 +3744,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3792,7 +3810,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3808,7 +3826,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3851,11 +3869,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,7 +4083,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4082,11 +4100,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,7 +4182,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,10 +4302,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>263</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4336,7 +4354,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4369,7 +4387,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4412,49 +4430,148 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>158</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>81</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>142</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>275</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>81</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>132</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>75</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5343.4700000000003</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>271</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>272</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>273</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>81</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>132</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5444.4700000000003</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>277</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>278</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>279</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4913,10 +5030,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -107,582 +119,630 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>141.9600</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>ASCIZADEX-N TOP. GEL 40 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>315.0000</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
+    <t>BURNASORES 0.25% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>CARDIOTON 300MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>-33.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>COVAPRENDO 5/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>129.4800</t>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>-23.5000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASMOVAC 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>-38.6100</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>150.4000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>69.7200</t>
   </si>
   <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>315.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>117.8100</t>
-  </si>
-  <si>
-    <t>BURNASORES 0.25% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>CARDIOTON 300MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>-33.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>COVAPRENDO 5/10MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>89.1000</t>
-  </si>
-  <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>133.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>-23.5000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASMOVAC 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>-38.6100</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELASONOZ   SYRUP</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>150.4000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>69.7200</t>
-  </si>
-  <si>
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
@@ -761,9 +821,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -788,6 +845,21 @@
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>101.2000</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -809,10 +881,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>32.4000</t>
-  </si>
-  <si>
-    <t>10:1</t>
+    <t>35.4000</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -830,6 +902,15 @@
     <t xml:space="preserve">فازلين شفايف افونا </t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -842,7 +923,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:35 PM</t>
+    <t>Saturday, 6 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1629,10 +1710,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1641,14 +1722,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1658,14 +1739,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1674,14 +1755,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1691,14 +1772,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1714,7 +1795,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1724,11 +1805,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1740,14 +1821,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1780,7 +1861,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1790,11 +1871,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1806,7 +1887,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1823,11 +1904,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1839,14 +1920,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1856,11 +1937,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1872,14 +1953,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,14 +1970,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1912,7 +1993,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1945,7 +2026,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1955,14 +2036,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1971,14 +2052,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1988,14 +2069,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2004,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,11 +2102,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2037,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,7 +2135,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2077,7 +2158,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,14 +2168,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2103,28 +2184,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2136,14 +2217,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,11 +2234,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2169,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,11 +2267,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2202,31 +2283,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,14 +2333,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,11 +2399,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2334,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2448,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2391,7 +2472,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2407,7 +2488,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2433,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2450,14 +2531,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2547,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2490,7 +2571,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2506,7 +2587,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,14 +2646,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,14 +2663,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2631,14 +2712,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,11 +2729,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2664,14 +2745,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2681,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,7 +2811,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2747,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2770,7 +2851,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,11 +2861,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2796,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,11 +2894,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2829,14 +2910,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,11 +2960,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2895,28 +2976,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2928,14 +3009,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3001,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3018,7 +3099,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3034,7 +3115,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3067,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,28 +3174,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3126,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,11 +3257,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3192,31 +3273,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3232,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3265,21 +3346,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3291,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3423,31 +3504,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,31 +3537,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,31 +3570,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,7 +3603,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3539,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3555,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3595,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,7 +3735,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3671,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,31 +3768,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4116,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4149,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4263,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,7 +4296,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4228,18 +4309,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4329,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,31 +4362,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>263</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,31 +4395,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,28 +4428,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4380,31 +4461,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,28 +4494,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4446,28 +4527,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4479,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,66 +4593,396 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5444.4700000000003</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>277</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>278</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>279</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>285</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>33</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>89</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>286</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>288</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>33</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>89</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>289</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>292</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>175</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>89</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>147</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>146</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>89</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>294</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>296</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>70</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>89</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>34</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>297</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>33</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>89</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>19</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>298</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>299</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>89</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>245</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>300</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>175</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>89</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>133</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>301</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>302</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>89</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>147</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>303</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>12</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>89</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>147</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5971.1700000000001</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>304</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>305</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>306</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5045,10 +5456,60 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:36 PM</t>
+    <t>Saturday, 6 September, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>315.0000</t>
   </si>
   <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>154.5000</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -560,6 +569,15 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -923,7 +941,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 9:54 PM</t>
+    <t>Saturday, 6 September, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2077,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2076,7 +2094,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2092,7 +2110,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2142,7 +2160,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2175,7 +2193,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2191,7 +2209,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2224,7 +2242,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2267,11 +2285,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2283,31 +2301,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2323,24 +2341,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2422,7 +2440,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2439,7 +2457,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,7 +2532,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2571,7 +2589,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,7 +2671,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2736,7 +2754,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2752,7 +2770,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2769,7 +2787,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2785,7 +2803,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2835,7 +2853,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2851,7 +2869,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,11 +2879,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,11 +2912,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2917,7 +2935,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2967,7 +2985,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2983,7 +3001,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,14 +3044,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,7 +3077,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3082,7 +3100,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3099,7 +3117,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3115,7 +3133,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3132,7 +3150,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3148,7 +3166,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3176,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3174,31 +3192,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3214,13 +3232,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3231,7 +3249,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3247,7 +3265,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,11 +3308,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3379,7 +3397,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3396,7 +3414,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3412,7 +3430,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3445,7 +3463,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,31 +3522,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3570,31 +3588,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,11 +3638,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3636,28 +3654,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,11 +3704,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3737,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3775,24 +3793,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3826,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3825,7 +3843,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3841,24 +3859,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,7 +3892,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3907,7 +3925,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,7 +4050,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,7 +4116,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4496,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,7 +4512,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4507,15 +4525,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4527,31 +4545,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,31 +4578,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4600,24 +4618,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,20 +4644,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4647,10 +4665,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4677,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>291</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4710,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,31 +4743,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,28 +4776,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4791,28 +4809,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4824,28 +4842,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4857,28 +4875,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4890,28 +4908,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4923,66 +4941,132 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5971.1700000000001</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>304</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>305</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>306</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>307</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>308</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>92</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>150</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>92</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>150</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6381.6700000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>310</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>311</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>312</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5506,10 +5590,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:00 PM</t>
+    <t>Saturday, 6 September, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -929,6 +929,12 @@
     <t>17:0</t>
   </si>
   <si>
+    <t>مرطب شفاه لونا COLA</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -941,7 +947,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:01 PM</t>
+    <t>Saturday, 6 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4948,7 +4954,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4964,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,11 +4997,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5014,7 +5020,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5035,38 +5041,71 @@
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6381.6700000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>310</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>311</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>12</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>92</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>150</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6401.6700000000001</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>312</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>313</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>314</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5600,10 +5639,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -845,6 +845,15 @@
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
     <t>ZITHROMAX 900MG/22.5ML (200MG/5ML) SUSP.</t>
   </si>
   <si>
@@ -947,7 +956,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:02 PM</t>
+    <t>Saturday, 6 September, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4525,7 +4534,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4591,24 +4600,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,7 +4626,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4634,11 +4643,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>88</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>293</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,10 +4779,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>296</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>297</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4855,7 +4864,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,11 +4940,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4973,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,11 +5006,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,11 +5039,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5074,38 +5083,71 @@
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6401.6700000000001</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>312</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>313</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>314</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>92</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>150</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6606.6700000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>315</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>316</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>317</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5686,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -956,7 +956,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:03 PM</t>
+    <t>Saturday, 6 September, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4534,7 +4534,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -107,15 +107,21 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ANOXICAM 20MG 10 SUPP.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -209,15 +215,6 @@
     <t>315.0000</t>
   </si>
   <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>154.5000</t>
-  </si>
-  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -647,6 +641,12 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -956,7 +956,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:04 PM</t>
+    <t>Saturday, 6 September, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1762,7 +1762,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1772,14 +1772,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1805,14 +1805,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1821,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1838,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1854,14 +1854,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1887,14 +1887,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1904,11 +1904,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1920,14 +1920,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1970,11 +1970,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,14 +2003,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2019,14 +2019,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2036,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2052,14 +2052,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,14 +2069,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2085,14 +2085,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,14 +2102,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2135,11 +2135,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2151,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,11 +2168,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2184,14 +2184,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2201,11 +2201,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2217,14 +2217,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2267,11 +2267,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2316,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2349,20 +2349,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2382,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,11 +2399,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2498,14 +2498,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,11 +2531,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2547,14 +2547,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,11 +2564,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2580,14 +2580,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,11 +2597,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2613,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2646,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2729,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2745,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2762,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2778,14 +2778,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,11 +2795,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2811,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2894,11 +2894,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2910,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,11 +2927,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2943,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3026,11 +3026,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3059,11 +3059,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3075,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,11 +3092,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3108,14 +3108,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,11 +3125,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3141,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3207,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,11 +3224,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3253,15 +3253,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3273,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3323,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3339,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,11 +3356,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3389,11 +3389,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3455,11 +3455,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3488,14 +3488,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,11 +3521,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3537,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3603,28 +3603,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3636,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,11 +3653,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3669,28 +3669,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3719,11 +3719,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3735,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3785,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3801,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3818,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3834,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,11 +3851,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3867,31 +3867,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,31 +3900,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3966,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,11 +4313,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4329,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,11 +4445,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4461,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4577,11 +4577,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4593,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4672,15 +4672,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4692,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>47</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>291</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>88</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>296</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,31 +4791,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,31 +4824,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,28 +4857,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4890,28 +4890,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4923,28 +4923,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4956,28 +4956,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4989,28 +4989,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5022,28 +5022,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5055,28 +5055,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5088,66 +5088,99 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6606.6700000000001</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>314</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>91</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>148</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6487.1700000000001</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>315</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
         <v>316</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
         <v>317</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5691,10 +5724,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -956,7 +956,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:09 PM</t>
+    <t>Saturday, 6 September, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -839,9 +839,15 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
+    <t>84.1500</t>
+  </si>
+  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -899,7 +905,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -4501,7 +4510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,7 +4536,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4560,7 +4569,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4577,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4593,7 +4602,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4626,7 +4635,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4643,11 +4652,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>87</v>
@@ -4659,7 +4668,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4692,7 +4701,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4725,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4779,7 +4788,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>87</v>
@@ -4791,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4808,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,7 +4833,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4841,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,7 +4866,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4890,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4907,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4923,7 +4932,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4956,7 +4965,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4989,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5022,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5055,7 +5064,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5088,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5121,7 +5130,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5150,13 +5159,13 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>6487.1700000000001</v>
+        <v>6506</v>
       </c>
       <c r="Q115" s="13"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c t="s" r="A116" s="14">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5164,13 +5173,13 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c t="s" r="G116" s="15">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="16"/>
       <c t="s" r="K116" s="17">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:10 PM</t>
+    <t>Saturday, 6 September, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -332,228 +332,225 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>COVAPRENDO 5/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>-23.5000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASMOVAC 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>33.0000</t>
   </si>
   <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>COVAPRENDO 5/10MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
-  </si>
-  <si>
-    <t>103.00</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>89.1000</t>
-  </si>
-  <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>133.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>-23.5000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASMOVAC 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>GLIPTALINA 2.5/1000MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -965,7 +962,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:13 PM</t>
+    <t>Saturday, 6 September, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2544,10 +2541,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2556,7 +2553,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2577,7 +2574,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2589,7 +2586,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2606,11 +2603,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2622,7 +2619,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2639,11 +2636,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2655,14 +2652,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2676,10 +2673,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2688,7 +2685,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2705,11 +2702,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2721,7 +2718,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2742,10 +2739,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2771,14 +2768,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2787,7 +2784,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2804,11 +2801,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2837,11 +2834,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2853,7 +2850,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2870,11 +2867,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2886,7 +2883,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2903,11 +2900,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2919,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,11 +2933,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2952,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,7 +2966,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2985,7 +2982,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3002,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>38</v>
@@ -3018,7 +3015,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3035,11 +3032,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3051,7 +3048,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3072,7 +3069,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3084,7 +3081,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3101,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3117,7 +3114,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3134,11 +3131,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3150,7 +3147,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3167,11 +3164,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>105</v>
@@ -3183,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,11 +3197,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3216,7 +3213,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3249,7 +3246,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3266,11 +3263,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3282,7 +3279,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3299,11 +3296,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>87</v>
@@ -3315,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,11 +3329,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3348,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3369,7 +3366,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3381,7 +3378,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3398,11 +3395,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3414,7 +3411,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3431,11 +3428,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3447,7 +3444,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3464,11 +3461,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3480,7 +3477,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3497,11 +3494,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>105</v>
@@ -3513,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3534,7 +3531,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3546,7 +3543,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3563,11 +3560,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>105</v>
@@ -3579,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3612,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3645,7 +3642,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3662,11 +3659,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3678,7 +3675,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3711,7 +3708,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3728,11 +3725,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3744,7 +3741,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3761,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3777,7 +3774,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3794,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3810,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3843,7 +3840,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3860,11 +3857,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3876,7 +3873,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3893,11 +3890,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3909,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>38</v>
@@ -3942,7 +3939,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3959,11 +3956,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3992,11 +3989,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4008,7 +4005,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4025,11 +4022,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4041,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,11 +4055,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>38</v>
@@ -4074,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,7 +4104,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4124,11 +4121,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4140,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>248</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>249</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,7 +4170,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4190,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4206,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,11 +4220,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>38</v>
@@ -4239,7 +4236,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4256,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4272,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4305,7 +4302,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4322,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4338,7 +4335,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4371,7 +4368,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4388,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,7 +4401,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4421,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>38</v>
@@ -4437,7 +4434,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4454,11 +4451,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4470,7 +4467,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4487,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4503,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4517,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>50</v>
@@ -4536,7 +4533,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4569,7 +4566,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4586,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4602,7 +4599,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4619,11 +4616,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4635,7 +4632,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4652,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>87</v>
@@ -4668,7 +4665,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4685,11 +4682,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4701,7 +4698,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4722,7 +4719,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4734,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>292</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>293</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>87</v>
@@ -4800,7 +4797,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4817,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>298</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>299</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,7 +4830,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4850,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>302</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>303</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,7 +4880,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4899,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4932,7 +4929,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4965,7 +4962,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4998,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5031,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5064,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5097,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,7 +5111,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5130,7 +5127,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5147,7 +5144,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5159,13 +5156,13 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>6506</v>
+        <v>6539</v>
       </c>
       <c r="Q115" s="13"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c t="s" r="A116" s="14">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5173,13 +5170,13 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c t="s" r="G116" s="15">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="16"/>
       <c t="s" r="K116" s="17">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:30 PM</t>
+    <t>Saturday, 6 September, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -644,6 +644,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -749,9 +758,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>69.7200</t>
   </si>
   <si>
@@ -815,6 +821,15 @@
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -824,9 +839,6 @@
     <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -866,7 +878,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>192.0000</t>
+    <t>288.0000</t>
   </si>
   <si>
     <t>ايفا بديل زيت</t>
@@ -3781,7 +3793,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,11 +3869,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3880,7 +3892,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3913,24 +3925,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,24 +3958,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,7 +3991,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3996,7 +4008,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,7 +4024,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4029,7 +4041,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4045,7 +4057,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>240</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>243</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4144,7 +4156,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4453,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4590,7 +4602,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4616,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4639,7 +4651,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4656,7 +4668,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4678,15 +4690,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4705,24 +4717,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4776,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,14 +4809,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,14 +4826,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,14 +4842,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>302</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>306</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4936,7 +4948,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4969,7 +4981,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,11 +5057,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5068,7 +5080,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5094,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,49 +5156,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>318</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>319</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>91</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>146</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6539</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>317</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>318</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>319</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>91</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>146</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6696.5900000000001</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>321</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>322</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>323</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5735,10 +5813,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -650,195 +650,198 @@
     <t>42.00</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>150.4000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>69.7200</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TECAFO 30 TAB</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>36.9600</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
+  </si>
+  <si>
     <t>21.0000</t>
   </si>
   <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>150.4000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>69.7200</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
-  </si>
-  <si>
-    <t>1:15</t>
-  </si>
-  <si>
-    <t>176.00</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TECAFO 30 TAB</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>36.9600</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
-  </si>
-  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -974,7 +977,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:31 PM</t>
+    <t>Saturday, 6 September, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3793,7 +3796,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3810,7 +3813,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4533,7 +4536,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4545,7 +4548,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4578,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>50</v>
@@ -4611,7 +4614,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4677,7 +4680,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4710,7 +4713,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>72</v>
@@ -4743,7 +4746,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4776,7 +4779,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4809,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,7 +4845,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4863,7 +4866,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>87</v>
@@ -4875,7 +4878,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,7 +4911,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,7 +4944,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4974,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4991,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5040,7 +5043,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5073,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5106,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5139,7 +5142,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5172,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5205,7 +5208,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5234,13 +5237,13 @@
     </row>
     <row r="117" ht="25.5" customHeight="1">
       <c r="P117" s="13">
-        <v>6696.5900000000001</v>
+        <v>6717.5900000000001</v>
       </c>
       <c r="Q117" s="13"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c t="s" r="A118" s="14">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5248,13 +5251,13 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c t="s" r="G118" s="15">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="16"/>
       <c t="s" r="K118" s="17">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:32 PM</t>
+    <t>Saturday, 6 September, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -443,6 +443,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -578,6 +590,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>INFECTOMYCIN 500MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>ITRANOX 100MG 15 CAPS.</t>
   </si>
   <si>
@@ -767,9 +788,6 @@
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -977,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:33 PM</t>
+    <t>Saturday, 6 September, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2985,10 +3003,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3146,11 +3164,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3179,14 +3197,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3212,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,11 +3263,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3261,31 +3279,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3294,31 +3312,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3351,7 +3369,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,11 +3428,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3426,7 +3444,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3459,7 +3477,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>105</v>
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3624,31 +3642,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,11 +3692,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3697,7 +3715,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,11 +3758,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3756,31 +3774,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,11 +3824,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,11 +3923,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,11 +3956,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3954,31 +3972,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,31 +4038,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4110,7 +4128,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4126,7 +4144,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,7 +4220,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4242,7 +4260,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>257</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,11 +4385,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>47</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,11 +4550,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4598,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4621,7 +4639,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,7 +4698,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4697,11 +4715,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4713,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,7 +4764,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4759,15 +4777,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4779,31 +4797,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>297</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4852,7 +4870,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4878,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4918,7 +4936,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>307</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4944,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,11 +5045,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5043,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5109,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5144,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5142,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5175,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5192,11 +5210,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5208,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5225,49 +5243,115 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>325</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>326</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>91</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>150</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6717.5900000000001</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>322</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>323</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>324</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>327</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>91</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>150</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6818.4300000000003</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>328</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>329</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>330</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5826,10 +5910,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 10:42 PM</t>
+    <t>Saturday, 6 September, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:06 PM</t>
+    <t>Saturday, 6 September, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -956,6 +956,9 @@
     <t>سكاته بوب تون</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -995,7 +998,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:12 PM</t>
+    <t>Saturday, 6 September, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5068,7 +5071,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5094,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5134,7 +5137,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5167,7 +5170,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5226,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5266,7 +5269,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5279,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5292,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5320,38 +5323,71 @@
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6818.4300000000003</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>328</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>12</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>91</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>150</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6863.4300000000003</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>329</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
         <v>330</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>331</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5920,10 +5956,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:13 PM</t>
+    <t>Saturday, 6 September, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -161,45 +161,45 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>ASCIZADEX-N TOP. GEL 40 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>ASCIZADEX-N TOP. GEL 40 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -698,7 +698,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>92.0000</t>
+    <t>115.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -770,9 +770,6 @@
     <t>186.00</t>
   </si>
   <si>
-    <t>61.3800</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -998,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:17 PM</t>
+    <t>Saturday, 6 September, 2025 11:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1966,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1979,14 +1976,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1995,7 +1992,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2012,11 +2009,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2028,7 +2025,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2045,11 +2042,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2061,7 +2058,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2078,11 +2075,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2094,14 +2091,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2299,7 +2296,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2577,7 +2574,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>87</v>
@@ -2662,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -3652,7 +3649,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3850,7 +3847,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4015,7 +4012,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4032,7 +4029,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4260,7 +4257,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4272,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4293,10 +4290,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>256</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>257</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,7 +4302,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4326,7 +4323,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4338,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,11 +4352,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>38</v>
@@ -4371,7 +4368,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4388,11 +4385,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4404,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,11 +4418,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4437,7 +4434,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4454,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4470,7 +4467,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4503,7 +4500,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4536,7 +4533,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4553,11 +4550,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4569,7 +4566,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4590,7 +4587,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>38</v>
@@ -4602,7 +4599,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4623,7 +4620,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4635,7 +4632,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4656,7 +4653,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4668,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,7 +4698,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4734,7 +4731,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4751,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4767,7 +4764,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4800,7 +4797,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4817,11 +4814,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>72</v>
@@ -4833,7 +4830,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4866,7 +4863,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4899,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>302</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>303</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,7 +4929,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4953,7 +4950,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>87</v>
@@ -4965,7 +4962,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4982,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>308</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>309</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,7 +4995,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5015,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>312</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>313</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,7 +5028,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5064,7 +5061,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5097,7 +5094,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5114,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5130,7 +5127,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5163,7 +5160,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5196,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5217,7 +5214,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5229,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5262,7 +5259,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5295,14 +5292,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5328,7 +5325,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5357,13 +5354,13 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>6863.4300000000003</v>
+        <v>6917.1199999999999</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c t="s" r="A121" s="14">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5371,13 +5368,13 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c t="s" r="G121" s="15">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
       <c t="s" r="K121" s="17">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -608,6 +608,15 @@
     <t>-35.6400</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -995,7 +1004,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:18 PM</t>
+    <t>Saturday, 6 September, 2025 11:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3616,24 +3625,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3649,7 +3658,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,31 +3717,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,20 +3750,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3765,7 +3774,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3781,21 +3790,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3807,28 +3816,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4012,7 +4021,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4029,7 +4038,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4045,24 +4054,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4078,24 +4087,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4111,7 +4120,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4128,7 +4137,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4144,7 +4153,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4161,7 +4170,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4177,7 +4186,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>250</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4392,7 +4401,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4408,7 +4417,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4458,7 +4467,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4474,7 +4483,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4573,7 +4582,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,7 +4740,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4781,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4837,24 +4846,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,7 +4872,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4880,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>87</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>308</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,7 +5004,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>311</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>312</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5134,7 +5143,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5193,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5318,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5353,38 +5362,71 @@
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6917.1199999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>328</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>329</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>330</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>91</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>150</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6974.1199999999999</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>331</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>332</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>333</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5958,10 +6000,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -386,13 +386,28 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>DISPRELONE-OD 20MG 30 ORODISPERSABLE TABS.</t>
+  </si>
+  <si>
+    <t>202.50</t>
+  </si>
+  <si>
+    <t>405.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
@@ -545,9 +560,6 @@
     <t>GASMOVAC 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -719,15 +731,21 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -845,6 +863,9 @@
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -878,9 +899,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>84.1500</t>
   </si>
   <si>
@@ -1004,7 +1022,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Saturday, 6 September, 2025 11:51 PM</t>
+    <t>Saturday, 6 September, 2025 11:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2800,7 +2818,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2817,7 +2835,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2833,7 +2851,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,11 +2927,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2925,7 +2943,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,11 +3323,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3321,31 +3339,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,31 +3372,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,11 +3455,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,11 +3488,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3486,7 +3504,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3503,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3519,7 +3537,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3587,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,31 +3636,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,31 +3669,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,31 +3768,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3790,24 +3808,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,28 +3834,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3849,28 +3867,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3882,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,11 +3983,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,11 +4016,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,11 +4049,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,31 +4098,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,31 +4131,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,7 +4164,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4163,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4179,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4219,7 +4237,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,7 +4346,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4361,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4394,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>265</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4427,11 +4445,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4443,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4509,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>47</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4699,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,11 +4709,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4707,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,7 +4758,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4757,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4780,7 +4798,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4874,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,7 +4890,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4885,15 +4903,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4905,7 +4923,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4918,15 +4936,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4938,20 +4956,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4962,7 +4980,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>305</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5039,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>311</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5105,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>143</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5143,7 +5161,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5160,7 +5178,7 @@
         <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5202,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5235,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>154</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5268,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5301,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5334,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5367,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,49 +5402,148 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>333</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>129</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>91</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>137</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>334</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>335</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>91</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>155</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6974.1199999999999</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>331</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>332</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>333</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>336</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>12</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>91</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>155</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7638.1199999999999</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>337</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>338</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>339</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6005,10 +6122,25 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-06_00-00.xlsx
+++ b/DaySale_2025-09-06_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 12:02 AM</t>
+    <t>Sunday, 7 September, 2025 12:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
